--- a/data/out/standings_euro_fifa.xlsx
+++ b/data/out/standings_euro_fifa.xlsx
@@ -522,7 +522,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Denmark', 'France', 'Belgium']</t>
+          <t>['Belgium', 'Denmark', 'France']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -571,7 +571,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal', 'West Germany']</t>
+          <t>['Spain', 'West Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -620,7 +620,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'West Germany']</t>
+          <t>['Spain', 'West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -669,7 +669,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Republic of Ireland', 'Soviet Union']</t>
+          <t>['Netherlands', 'Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -718,7 +718,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Denmark', 'France', 'Sweden']</t>
+          <t>['Sweden', 'Denmark', 'France']</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -767,7 +767,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany', 'CIS']</t>
+          <t>['Germany', 'CIS', 'Netherlands']</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -875,7 +875,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['England', 'Scotland']</t>
+          <t>['Scotland', 'England']</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1327,7 +1327,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1494,7 +1494,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1769,7 +1769,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1877,7 +1877,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2329,7 +2329,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2496,7 +2496,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2663,7 +2663,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2820,7 +2820,7 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2928,7 +2928,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3085,7 +3085,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3360,7 +3360,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3576,7 +3576,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3625,7 +3625,7 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3674,7 +3674,7 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia']</t>
+          <t>['Slovakia', 'England']</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3733,7 +3733,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['England', 'Wales']</t>
+          <t>['Wales', 'England']</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3880,7 +3880,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3988,7 +3988,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal']</t>
+          <t>['Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4096,7 +4096,7 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Wales', 'Italy']</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4145,7 +4145,7 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4469,7 +4469,7 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4528,7 +4528,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4803,7 +4803,7 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany']</t>
+          <t>['Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4852,7 +4852,7 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4970,7 +4970,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5019,7 +5019,7 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['England', 'Denmark']</t>
+          <t>['Denmark', 'England']</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5137,7 +5137,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['England', 'Denmark']</t>
+          <t>['Denmark', 'England']</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5589,7 +5589,7 @@
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium']</t>
+          <t>['Belgium', 'Romania']</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium']</t>
+          <t>['Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium']</t>
+          <t>['Belgium', 'Romania']</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">

--- a/data/out/standings_euro_fifa.xlsx
+++ b/data/out/standings_euro_fifa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +522,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'France']</t>
+          <t>['France', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -620,7 +620,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -669,7 +669,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Soviet Union', 'Republic of Ireland']</t>
+          <t>['Soviet Union', 'Netherlands', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -718,7 +718,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark', 'France']</t>
+          <t>['France', 'Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -767,7 +767,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Germany', 'CIS', 'Netherlands']</t>
+          <t>['Germany', 'Netherlands', 'CIS']</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Scotland', 'Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands', 'Scotland']</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1494,7 +1494,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1769,7 +1769,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1877,7 +1877,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2280,7 +2280,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2977,7 +2977,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3085,7 +3085,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3193,7 +3193,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['Greece', 'Russia']</t>
+          <t>['Russia', 'Greece']</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3880,7 +3880,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4185,7 +4185,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -4394,38 +4394,28 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" t="n">
-        <v>77</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['England', 'Croatia']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>['Czech Republic']</t>
+          <t>['Spain']</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -4433,17 +4423,17 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Spain</t>
         </is>
       </c>
     </row>
@@ -4457,24 +4447,34 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>30</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>['Spain']</t>
+          <t>['Slovakia']</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -4487,12 +4487,12 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
           <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>Spain</t>
         </is>
       </c>
     </row>
@@ -4502,38 +4502,28 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
-      </c>
-      <c r="D76" t="n">
-        <v>30</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>['Slovakia']</t>
+          <t>['Germany']</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -4541,17 +4531,17 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
@@ -4565,24 +4555,34 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>66</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>['Germany']</t>
+          <t>['France']</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -4590,17 +4590,17 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
           <t>France</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>Germany</t>
         </is>
       </c>
     </row>
@@ -4614,10 +4614,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4631,17 +4631,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>['France']</t>
+          <t>['Hungary']</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -4654,12 +4654,12 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Hungary</t>
         </is>
       </c>
     </row>
@@ -4673,10 +4673,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4690,17 +4690,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>['Hungary']</t>
+          <t>['France']</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -4713,71 +4713,61 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
           <t>France</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>Hungary</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
-      </c>
-      <c r="D80" t="n">
-        <v>84</v>
-      </c>
-      <c r="E80" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>['Germany', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['Scotland']</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>['Germany', 'Portugal']</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>['France']</t>
-        </is>
-      </c>
-      <c r="J80" t="n">
-        <v>1</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Scotland</t>
         </is>
       </c>
     </row>
@@ -4787,7 +4777,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -4803,12 +4793,12 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>['Scotland']</t>
+          <t>['Albania']</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -4816,17 +4806,17 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Albania</t>
         </is>
       </c>
     </row>
@@ -4840,24 +4830,34 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>55</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>['Albania']</t>
+          <t>['Italy']</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -4870,12 +4870,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
           <t>Italy</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>Albania</t>
         </is>
       </c>
     </row>
@@ -4889,10 +4889,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4906,35 +4906,35 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>['Spain', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['Croatia']</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
           <t>Croatia</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>['Spain', 'Croatia']</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>['Italy']</t>
-        </is>
-      </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>Italy</t>
         </is>
       </c>
     </row>
@@ -4944,38 +4944,28 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
-      </c>
-      <c r="D84" t="n">
-        <v>98</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['England', 'Denmark']</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>['Croatia']</t>
+          <t>['Slovenia']</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -4983,17 +4973,17 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Slovenia</t>
         </is>
       </c>
     </row>
@@ -5007,24 +4997,34 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>18</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['Denmark', 'England']</t>
+          <t>['England', 'Slovenia']</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>['Slovenia']</t>
+          <t>['Denmark']</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -5037,12 +5037,12 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
           <t>Denmark</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
         </is>
       </c>
     </row>
@@ -5056,10 +5056,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -5073,35 +5073,35 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>['England', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['Slovenia']</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>['England', 'Slovenia']</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>['Denmark']</t>
-        </is>
-      </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
       <c r="L86" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
           <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>Denmark</t>
         </is>
       </c>
     </row>
@@ -5115,52 +5115,52 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>['England', 'Slovenia']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['Denmark']</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
           <t>Denmark</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>['Denmark', 'England']</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>['Slovenia']</t>
-        </is>
-      </c>
-      <c r="J87" t="n">
-        <v>1</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
         </is>
       </c>
     </row>
@@ -5170,38 +5170,28 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
-      </c>
-      <c r="D88" t="n">
-        <v>69</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>['Denmark']</t>
+          <t>['Austria']</t>
         </is>
       </c>
       <c r="J88" t="n">
@@ -5209,17 +5199,17 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Austria</t>
         </is>
       </c>
     </row>
@@ -5233,24 +5223,34 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>6</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Austria']</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>['Austria']</t>
+          <t>['Netherlands']</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -5258,17 +5258,17 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
           <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>Austria</t>
         </is>
       </c>
     </row>
@@ -5282,10 +5282,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -5299,35 +5299,35 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>['France', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['Austria']</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
           <t>Austria</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>['France', 'Austria']</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>['Netherlands']</t>
-        </is>
-      </c>
-      <c r="J90" t="n">
-        <v>1</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
         </is>
       </c>
     </row>
@@ -5341,10 +5341,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -5358,35 +5358,35 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>['France', 'Austria']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['Netherlands']</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
           <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'France']</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>['Austria']</t>
-        </is>
-      </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>Austria</t>
         </is>
       </c>
     </row>
@@ -5400,10 +5400,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -5417,35 +5417,35 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>['France', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['Austria']</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
           <t>Austria</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>['France', 'Austria']</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>['Netherlands']</t>
-        </is>
-      </c>
-      <c r="J92" t="n">
-        <v>1</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
         </is>
       </c>
     </row>
@@ -5459,10 +5459,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -5476,35 +5476,35 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>['France', 'Austria']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['Netherlands']</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
           <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'France']</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>['Austria']</t>
-        </is>
-      </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>Austria</t>
         </is>
       </c>
     </row>
@@ -5514,38 +5514,28 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
-      </c>
-      <c r="D94" t="n">
-        <v>80</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['France', 'Austria']</t>
+          <t>['Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>['Netherlands']</t>
+          <t>['Ukraine']</t>
         </is>
       </c>
       <c r="J94" t="n">
@@ -5553,17 +5543,17 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Ukraine</t>
         </is>
       </c>
     </row>
@@ -5577,19 +5567,29 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>24</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['Belgium', 'Romania']</t>
+          <t>['Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -5626,10 +5626,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -5643,12 +5643,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia']</t>
+          <t>['Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5666,7 +5666,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -5681,38 +5681,28 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
-      </c>
-      <c r="D97" t="n">
-        <v>37</v>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['Belgium', 'Romania']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>['Ukraine']</t>
+          <t>['Czech Republic']</t>
         </is>
       </c>
       <c r="J97" t="n">
@@ -5720,17 +5710,17 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Czech Republic</t>
         </is>
       </c>
     </row>
@@ -5744,24 +5734,34 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>66</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>['Czech Republic']</t>
+          <t>['Turkey']</t>
         </is>
       </c>
       <c r="J98" t="n">
@@ -5774,12 +5774,12 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
           <t>Turkey</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
         </is>
       </c>
     </row>
@@ -5793,10 +5793,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -5810,17 +5810,17 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['Georgia', 'Portugal']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>['Turkey']</t>
+          <t>['Georgia']</t>
         </is>
       </c>
       <c r="J99" t="n">
@@ -5833,69 +5833,10 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>2</v>
-      </c>
-      <c r="D100" t="n">
-        <v>94</v>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>['Turkey', 'Portugal']</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>['Georgia']</t>
-        </is>
-      </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
